--- a/PROYECTO CP/Rectificaciones/Distribución de incidencias equipo VUCE - Revisión.xlsx
+++ b/PROYECTO CP/Rectificaciones/Distribución de incidencias equipo VUCE - Revisión.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VUCE\DocumentoVuce\PROYECTO CP\Rectificaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO CP\Rectificaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D87093-1FAA-4AA2-9E5E-F1D057790FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993653A8-218A-4386-B19F-B841D2AEF05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPS - GRUPO 1" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1466,6 +1466,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1532,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1657,207 +1663,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1867,6 +1672,208 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2253,277 +2260,330 @@
       </c>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="48">
+      <c r="C4" s="49">
         <v>226</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="58" t="s">
+      <c r="H4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="60">
+      <c r="J4" s="53"/>
+      <c r="K4" s="61">
         <v>45560</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="42" t="s">
+      <c r="N4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="42" t="s">
+      <c r="O4" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="49"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="48">
+      <c r="C6" s="49">
         <v>227</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="58" t="s">
+      <c r="H6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="60">
+      <c r="J6" s="53"/>
+      <c r="K6" s="61">
         <v>45560</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="46" t="s">
+      <c r="M6" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="7" spans="3:15">
-      <c r="C7" s="49"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="48">
+      <c r="C8" s="49">
         <v>228</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="56" t="s">
+      <c r="G8" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="60">
+      <c r="J8" s="53"/>
+      <c r="K8" s="61">
         <v>45560</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="M8" s="46" t="s">
+      <c r="M8" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="49"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="48">
+      <c r="C10" s="49">
         <v>229</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="H10" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="56" t="s">
+      <c r="I10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="60">
+      <c r="J10" s="53"/>
+      <c r="K10" s="61">
         <v>45560</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="46" t="s">
+      <c r="M10" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="42" t="s">
+      <c r="N10" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O10" s="42" t="s">
+      <c r="O10" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="49"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
     </row>
     <row r="12" spans="3:15">
-      <c r="C12" s="48">
+      <c r="C12" s="49">
         <v>230</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="52" t="s">
+      <c r="E12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="60">
+      <c r="J12" s="53"/>
+      <c r="K12" s="61">
         <v>45560</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="46" t="s">
+      <c r="M12" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="O12" s="42" t="s">
+      <c r="O12" s="47" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="3:15">
-      <c r="C13" s="49"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="N12:N13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
@@ -2536,59 +2596,6 @@
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="O12:O13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" location="8053!A1" display="8053!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2605,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37:K38"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -2652,88 +2659,88 @@
       <c r="L3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="109" t="s">
+      <c r="M3" s="42" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="105">
-      <c r="B4" s="64">
+      <c r="B4" s="84">
         <v>120</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="44" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="120">
-      <c r="B5" s="65"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="73"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="51"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="90">
-      <c r="B6" s="64">
+      <c r="B6" s="84">
         <v>122</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K6" s="50"/>
+      <c r="K6" s="51"/>
       <c r="L6" s="14" t="s">
         <v>43</v>
       </c>
@@ -2742,49 +2749,49 @@
       </c>
     </row>
     <row r="7" spans="2:13" ht="60">
-      <c r="B7" s="65"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="71"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="51"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="15" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="90">
-      <c r="B8" s="64">
+      <c r="B8" s="84">
         <v>123</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56" t="s">
+      <c r="H8" s="57"/>
+      <c r="I8" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="50"/>
+      <c r="K8" s="51"/>
       <c r="L8" s="16" t="s">
         <v>47</v>
       </c>
@@ -2793,49 +2800,49 @@
       </c>
     </row>
     <row r="9" spans="2:13" ht="60">
-      <c r="B9" s="65"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="71"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="51"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="52"/>
       <c r="L9" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="105">
-      <c r="B10" s="64">
+    <row r="10" spans="2:13" ht="90">
+      <c r="B10" s="84">
         <v>124</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="E10" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56" t="s">
+      <c r="H10" s="57"/>
+      <c r="I10" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="50"/>
+      <c r="K10" s="51"/>
       <c r="L10" s="16" t="s">
         <v>51</v>
       </c>
@@ -2844,49 +2851,49 @@
       </c>
     </row>
     <row r="11" spans="2:13" ht="75">
-      <c r="B11" s="65"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="71"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="73"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="51"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="52"/>
       <c r="L11" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="120">
-      <c r="B12" s="64">
+      <c r="B12" s="84">
         <v>125</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56" t="s">
+      <c r="H12" s="57"/>
+      <c r="I12" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J12" s="62" t="s">
+      <c r="J12" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="50"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="16" t="s">
         <v>55</v>
       </c>
@@ -2895,49 +2902,49 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="60">
-      <c r="B13" s="65"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="71"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="51"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:13" ht="90">
-      <c r="B14" s="64">
+      <c r="B14" s="84">
         <v>126</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56" t="s">
+      <c r="H14" s="57"/>
+      <c r="I14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K14" s="50"/>
+      <c r="K14" s="51"/>
       <c r="L14" s="16" t="s">
         <v>59</v>
       </c>
@@ -2946,49 +2953,49 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="75">
-      <c r="B15" s="65"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="71"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="87"/>
       <c r="F15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="73"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="51"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="17" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="120">
-      <c r="B16" s="64">
+      <c r="B16" s="84">
         <v>127</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="70" t="s">
+      <c r="E16" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J16" s="62" t="s">
+      <c r="J16" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="50"/>
+      <c r="K16" s="51"/>
       <c r="L16" s="16" t="s">
         <v>64</v>
       </c>
@@ -2997,64 +3004,64 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="60">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="98"/>
       <c r="L17" s="18" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="45">
-      <c r="B18" s="65"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="71"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="87"/>
       <c r="F18" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="73"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="51"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:13" ht="135">
-      <c r="B19" s="64">
+      <c r="B19" s="84">
         <v>128</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56" t="s">
+      <c r="H19" s="57"/>
+      <c r="I19" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="62" t="s">
+      <c r="J19" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="50"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="16" t="s">
         <v>68</v>
       </c>
@@ -3063,49 +3070,49 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="45">
-      <c r="B20" s="65"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="71"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="87"/>
       <c r="F20" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="73"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="51"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="52"/>
       <c r="L20" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="105">
-      <c r="B21" s="64">
+      <c r="B21" s="84">
         <v>129</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="68" t="s">
+      <c r="D21" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="70" t="s">
+      <c r="E21" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56" t="s">
+      <c r="H21" s="57"/>
+      <c r="I21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="62" t="s">
+      <c r="J21" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="50"/>
+      <c r="K21" s="51"/>
       <c r="L21" s="16" t="s">
         <v>72</v>
       </c>
@@ -3114,49 +3121,49 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="45">
-      <c r="B22" s="65"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="87"/>
       <c r="F22" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="73"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="51"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="52"/>
       <c r="L22" s="17" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="135">
-      <c r="B23" s="64">
+      <c r="B23" s="84">
         <v>130</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="70" t="s">
+      <c r="E23" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56" t="s">
+      <c r="H23" s="57"/>
+      <c r="I23" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="62" t="s">
+      <c r="J23" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="50"/>
+      <c r="K23" s="51"/>
       <c r="L23" s="16" t="s">
         <v>75</v>
       </c>
@@ -3165,202 +3172,202 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="45">
-      <c r="B24" s="65"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="71"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="73"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="51"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="52"/>
       <c r="L24" s="17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="120">
-      <c r="B25" s="64">
+      <c r="B25" s="84">
         <v>133</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="68" t="s">
+      <c r="D25" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="70" t="s">
+      <c r="E25" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="72" t="s">
+      <c r="G25" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56" t="s">
+      <c r="H25" s="57"/>
+      <c r="I25" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="62" t="s">
+      <c r="J25" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="50"/>
+      <c r="K25" s="51"/>
       <c r="L25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="112" t="s">
+      <c r="M25" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="60">
-      <c r="B26" s="65"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="71"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="73"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="51"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="180">
-      <c r="B27" s="64">
+      <c r="B27" s="84">
         <v>134</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="70" t="s">
+      <c r="E27" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="72" t="s">
+      <c r="G27" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56" t="s">
+      <c r="H27" s="57"/>
+      <c r="I27" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="62" t="s">
+      <c r="J27" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K27" s="50"/>
+      <c r="K27" s="51"/>
       <c r="L27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="112" t="s">
+      <c r="M27" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="105">
-      <c r="B28" s="65"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="71"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="51"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="52"/>
       <c r="L28" s="17" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="150">
-      <c r="B29" s="64">
+      <c r="B29" s="84">
         <v>135</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="70" t="s">
+      <c r="E29" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="72" t="s">
+      <c r="G29" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56" t="s">
+      <c r="H29" s="57"/>
+      <c r="I29" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J29" s="62" t="s">
+      <c r="J29" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K29" s="50"/>
+      <c r="K29" s="51"/>
       <c r="L29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="M29" s="112" t="s">
+      <c r="M29" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="75">
-      <c r="B30" s="65"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="71"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="51"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="75">
-      <c r="B31" s="64">
+      <c r="B31" s="84">
         <v>142</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="68" t="s">
+      <c r="D31" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="70" t="s">
+      <c r="E31" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="G31" s="72" t="s">
+      <c r="G31" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56" t="s">
+      <c r="H31" s="57"/>
+      <c r="I31" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J31" s="82" t="s">
+      <c r="J31" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K31" s="50"/>
+      <c r="K31" s="51"/>
       <c r="L31" s="14" t="s">
         <v>95</v>
       </c>
@@ -3369,302 +3376,302 @@
       </c>
     </row>
     <row r="32" spans="2:13" ht="90">
-      <c r="B32" s="65"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="71"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="51"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="52"/>
       <c r="L32" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="68.25" customHeight="1">
-      <c r="B33" s="64">
+      <c r="B33" s="84">
         <v>143</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="68" t="s">
+      <c r="D33" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E33" s="70" t="s">
+      <c r="E33" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="72" t="s">
+      <c r="G33" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56" t="s">
+      <c r="H33" s="57"/>
+      <c r="I33" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J33" s="62" t="s">
+      <c r="J33" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K33" s="50"/>
+      <c r="K33" s="51"/>
       <c r="L33" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="113" t="s">
+      <c r="M33" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="75">
-      <c r="B34" s="65"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="71"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="87"/>
       <c r="F34" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="G34" s="73"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="51"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="52"/>
       <c r="L34" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="45">
-      <c r="B35" s="64">
+      <c r="B35" s="84">
         <v>144</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F35" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="G35" s="72" t="s">
+      <c r="G35" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56" t="s">
+      <c r="H35" s="57"/>
+      <c r="I35" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="62" t="s">
+      <c r="J35" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K35" s="50"/>
+      <c r="K35" s="51"/>
       <c r="L35" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="M35" s="113" t="s">
+      <c r="M35" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="90">
-      <c r="B36" s="65"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="71"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="73"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="51"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="52"/>
       <c r="L36" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="60">
-      <c r="B37" s="64">
+      <c r="B37" s="84">
         <v>145</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="68" t="s">
+      <c r="D37" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E37" s="70" t="s">
+      <c r="E37" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56" t="s">
+      <c r="H37" s="57"/>
+      <c r="I37" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J37" s="84" t="s">
+      <c r="J37" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="K37" s="50"/>
+      <c r="K37" s="51"/>
       <c r="L37" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37" s="114" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="90">
-      <c r="B38" s="65"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="71"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="87"/>
       <c r="F38" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G38" s="73"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="51"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="58"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="52"/>
       <c r="L38" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="316.89999999999998" customHeight="1">
-      <c r="B39" s="64">
+      <c r="B39" s="84">
         <v>146</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="70" t="s">
+      <c r="E39" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F39" s="86" t="s">
+      <c r="F39" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="72" t="s">
+      <c r="G39" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56" t="s">
+      <c r="H39" s="57"/>
+      <c r="I39" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J39" s="84" t="s">
+      <c r="J39" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="K39" s="50"/>
+      <c r="K39" s="51"/>
       <c r="L39" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="60">
-      <c r="B40" s="65"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="51"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="52"/>
       <c r="L40" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="90">
-      <c r="B41" s="64">
+      <c r="B41" s="84">
         <v>147</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="72" t="s">
+      <c r="G41" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56" t="s">
+      <c r="H41" s="57"/>
+      <c r="I41" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="62" t="s">
+      <c r="J41" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K41" s="50"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41" s="46" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="120">
-      <c r="B42" s="65"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="87"/>
       <c r="F42" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="73"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="51"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="52"/>
       <c r="L42" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="90">
-      <c r="B43" s="64">
+      <c r="B43" s="84">
         <v>148</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="70" t="s">
+      <c r="E43" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="99" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="72" t="s">
+      <c r="G43" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56" t="s">
+      <c r="H43" s="57"/>
+      <c r="I43" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="J43" s="82" t="s">
+      <c r="J43" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="50"/>
+      <c r="K43" s="51"/>
       <c r="L43" s="14" t="s">
         <v>117</v>
       </c>
@@ -3673,251 +3680,251 @@
       </c>
     </row>
     <row r="44" spans="2:13" ht="105">
-      <c r="B44" s="65"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="51"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="52"/>
       <c r="L44" s="15" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="90">
-      <c r="B45" s="64">
+      <c r="B45" s="84">
         <v>150</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="70" t="s">
+      <c r="E45" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="72" t="s">
+      <c r="G45" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56" t="s">
+      <c r="H45" s="57"/>
+      <c r="I45" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J45" s="62" t="s">
+      <c r="J45" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K45" s="50"/>
+      <c r="K45" s="51"/>
       <c r="L45" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="105">
-      <c r="B46" s="65"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="71"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="87"/>
       <c r="F46" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="73"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="51"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="52"/>
       <c r="L46" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="90">
-      <c r="B47" s="64">
+      <c r="B47" s="84">
         <v>151</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="70" t="s">
+      <c r="E47" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="72" t="s">
+      <c r="G47" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56" t="s">
+      <c r="H47" s="57"/>
+      <c r="I47" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J47" s="62" t="s">
+      <c r="J47" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K47" s="50"/>
+      <c r="K47" s="51"/>
       <c r="L47" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="75">
-      <c r="B48" s="65"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="71"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="87"/>
       <c r="F48" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G48" s="73"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="51"/>
+      <c r="G48" s="78"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="52"/>
       <c r="L48" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="51">
-      <c r="B49" s="64">
+      <c r="B49" s="84">
         <v>152</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="70" t="s">
+      <c r="E49" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G49" s="72" t="s">
+      <c r="G49" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56" t="s">
+      <c r="H49" s="57"/>
+      <c r="I49" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J49" s="62" t="s">
+      <c r="J49" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K49" s="50"/>
+      <c r="K49" s="51"/>
       <c r="L49" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="63.75">
-      <c r="B50" s="65"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="71"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="87"/>
       <c r="F50" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="G50" s="73"/>
-      <c r="H50" s="57"/>
-      <c r="I50" s="57"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="51"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="52"/>
       <c r="L50" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="105">
-      <c r="B51" s="64">
+      <c r="B51" s="84">
         <v>153</v>
       </c>
-      <c r="C51" s="66" t="s">
+      <c r="C51" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="70" t="s">
+      <c r="E51" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G51" s="72" t="s">
+      <c r="G51" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56" t="s">
+      <c r="H51" s="57"/>
+      <c r="I51" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="J51" s="62" t="s">
+      <c r="J51" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K51" s="50"/>
+      <c r="K51" s="51"/>
       <c r="L51" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="90">
-      <c r="B52" s="65"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="71"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="87"/>
       <c r="F52" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G52" s="73"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="51"/>
+      <c r="G52" s="78"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="58"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="52"/>
       <c r="L52" s="17" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="135">
-      <c r="B53" s="64">
+      <c r="B53" s="84">
         <v>185</v>
       </c>
-      <c r="C53" s="66" t="s">
+      <c r="C53" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="68" t="s">
+      <c r="D53" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E53" s="70" t="s">
+      <c r="E53" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="72" t="s">
+      <c r="G53" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56" t="s">
+      <c r="H53" s="57"/>
+      <c r="I53" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J53" s="62" t="s">
+      <c r="J53" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K53" s="50"/>
+      <c r="K53" s="51"/>
       <c r="L53" s="16" t="s">
         <v>133</v>
       </c>
@@ -3926,49 +3933,49 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="60">
-      <c r="B54" s="65"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="71"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="74"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="87"/>
       <c r="F54" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="G54" s="73"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
-      <c r="J54" s="63"/>
-      <c r="K54" s="51"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="52"/>
       <c r="L54" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="115.15" customHeight="1">
-      <c r="B55" s="64">
+      <c r="B55" s="84">
         <v>186</v>
       </c>
-      <c r="C55" s="66" t="s">
+      <c r="C55" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="68" t="s">
+      <c r="D55" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E55" s="70" t="s">
+      <c r="E55" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F55" s="88" t="s">
         <v>135</v>
       </c>
-      <c r="G55" s="72" t="s">
+      <c r="G55" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56" t="s">
+      <c r="H55" s="57"/>
+      <c r="I55" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J55" s="82" t="s">
+      <c r="J55" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K55" s="50"/>
+      <c r="K55" s="51"/>
       <c r="L55" s="16" t="s">
         <v>136</v>
       </c>
@@ -3977,47 +3984,47 @@
       </c>
     </row>
     <row r="56" spans="2:13" ht="60">
-      <c r="B56" s="65"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="71"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="76"/>
+      <c r="E56" s="87"/>
       <c r="F56" s="89"/>
-      <c r="G56" s="73"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="51"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="52"/>
       <c r="L56" s="17" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="135">
-      <c r="B57" s="64">
+      <c r="B57" s="84">
         <v>187</v>
       </c>
-      <c r="C57" s="66" t="s">
+      <c r="C57" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="68" t="s">
+      <c r="D57" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E57" s="70" t="s">
+      <c r="E57" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="G57" s="72" t="s">
+      <c r="G57" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56" t="s">
+      <c r="H57" s="57"/>
+      <c r="I57" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J57" s="82" t="s">
+      <c r="J57" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K57" s="50"/>
+      <c r="K57" s="51"/>
       <c r="L57" s="16" t="s">
         <v>133</v>
       </c>
@@ -4026,64 +4033,64 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="60">
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="77"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="93"/>
       <c r="F58" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="G58" s="78"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="90"/>
-      <c r="K58" s="81"/>
+      <c r="G58" s="95"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="82"/>
+      <c r="K58" s="98"/>
       <c r="L58" s="18" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="75">
-      <c r="B59" s="65"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="71"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="87"/>
       <c r="F59" s="17"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="57"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="51"/>
+      <c r="G59" s="78"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="58"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="52"/>
       <c r="L59" s="17" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="135">
-      <c r="B60" s="64">
+      <c r="B60" s="84">
         <v>188</v>
       </c>
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="68" t="s">
+      <c r="D60" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="70" t="s">
+      <c r="E60" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G60" s="72" t="s">
+      <c r="G60" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56" t="s">
+      <c r="H60" s="57"/>
+      <c r="I60" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J60" s="62" t="s">
+      <c r="J60" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="K60" s="50"/>
+      <c r="K60" s="51"/>
       <c r="L60" s="16" t="s">
         <v>143</v>
       </c>
@@ -4092,49 +4099,49 @@
       </c>
     </row>
     <row r="61" spans="2:13" ht="60">
-      <c r="B61" s="65"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="71"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="74"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="87"/>
       <c r="F61" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="G61" s="73"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="57"/>
-      <c r="J61" s="63"/>
-      <c r="K61" s="51"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="52"/>
       <c r="L61" s="17" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="105">
-      <c r="B62" s="64">
+      <c r="B62" s="84">
         <v>191</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="E62" s="70" t="s">
+      <c r="E62" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="88" t="s">
         <v>146</v>
       </c>
-      <c r="G62" s="72" t="s">
+      <c r="G62" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56" t="s">
+      <c r="H62" s="57"/>
+      <c r="I62" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J62" s="82" t="s">
+      <c r="J62" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K62" s="91"/>
+      <c r="K62" s="69"/>
       <c r="L62" s="4" t="s">
         <v>147</v>
       </c>
@@ -4143,62 +4150,62 @@
       </c>
     </row>
     <row r="63" spans="2:13" ht="60">
-      <c r="B63" s="74"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="76"/>
-      <c r="E63" s="77"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="91"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="93"/>
       <c r="F63" s="94"/>
-      <c r="G63" s="78"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="92"/>
+      <c r="G63" s="95"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="82"/>
+      <c r="K63" s="83"/>
       <c r="L63" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="90">
-      <c r="B64" s="65"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="71"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="87"/>
       <c r="F64" s="89"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="93"/>
+      <c r="G64" s="78"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="70"/>
       <c r="L64" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="115.15" customHeight="1">
-      <c r="B65" s="64">
+      <c r="B65" s="84">
         <v>192</v>
       </c>
-      <c r="C65" s="66" t="s">
+      <c r="C65" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="68" t="s">
+      <c r="D65" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="E65" s="70" t="s">
+      <c r="E65" s="86" t="s">
         <v>27</v>
       </c>
       <c r="F65" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="G65" s="72" t="s">
+      <c r="G65" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56" t="s">
+      <c r="H65" s="57"/>
+      <c r="I65" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J65" s="82" t="s">
+      <c r="J65" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="K65" s="50"/>
+      <c r="K65" s="51"/>
       <c r="L65" s="16" t="s">
         <v>151</v>
       </c>
@@ -4207,16 +4214,16 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="60">
-      <c r="B66" s="65"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="71"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="87"/>
       <c r="F66" s="89"/>
-      <c r="G66" s="73"/>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="51"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="52"/>
       <c r="L66" s="17" t="s">
         <v>137</v>
       </c>
@@ -4256,67 +4263,313 @@
       </c>
     </row>
     <row r="68" spans="2:13" ht="150">
-      <c r="B68" s="97">
+      <c r="B68" s="71">
         <v>199</v>
       </c>
-      <c r="C68" s="66" t="s">
+      <c r="C68" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="68" t="s">
+      <c r="D68" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="57" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G68" s="72" t="s">
+      <c r="G68" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="H68" s="91"/>
-      <c r="I68" s="50" t="s">
+      <c r="H68" s="69"/>
+      <c r="I68" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="J68" s="95" t="s">
+      <c r="J68" s="67" t="s">
         <v>158</v>
       </c>
-      <c r="K68" s="91"/>
+      <c r="K68" s="69"/>
       <c r="L68" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68" s="45" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="75">
-      <c r="B69" s="98"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="57"/>
+      <c r="B69" s="72"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="76"/>
+      <c r="E69" s="58"/>
       <c r="F69" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="G69" s="73"/>
-      <c r="H69" s="93"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="93"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="70"/>
       <c r="L69" s="17" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="284">
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:K52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="E57:E59"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="H57:H59"/>
+    <mergeCell ref="I57:I59"/>
+    <mergeCell ref="J57:J59"/>
+    <mergeCell ref="K57:K59"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="J55:J56"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
     <mergeCell ref="I65:I66"/>
     <mergeCell ref="J65:J66"/>
     <mergeCell ref="K65:K66"/>
@@ -4337,261 +4590,15 @@
     <mergeCell ref="F62:F64"/>
     <mergeCell ref="G62:G64"/>
     <mergeCell ref="H62:H64"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D57:D59"/>
-    <mergeCell ref="E57:E59"/>
-    <mergeCell ref="G57:G59"/>
-    <mergeCell ref="H57:H59"/>
-    <mergeCell ref="I57:I59"/>
-    <mergeCell ref="J57:J59"/>
-    <mergeCell ref="K57:K59"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="H55:H56"/>
-    <mergeCell ref="I55:I56"/>
-    <mergeCell ref="J55:J56"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="H51:H52"/>
-    <mergeCell ref="I51:I52"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="J51:J52"/>
-    <mergeCell ref="K51:K52"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4853,211 +4860,235 @@
       </c>
     </row>
     <row r="13" spans="3:10" ht="15">
-      <c r="C13" s="99">
+      <c r="C13" s="104">
         <v>170</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="103" t="s">
+      <c r="E13" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="F13" s="105">
+      <c r="F13" s="110">
         <v>45552</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="15">
-      <c r="C14" s="100"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="106"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="J14" s="51"/>
+      <c r="H14" s="97"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="3:10" ht="15">
-      <c r="C15" s="99">
+      <c r="C15" s="104">
         <v>171</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="103" t="s">
+      <c r="E15" s="112" t="s">
         <v>173</v>
       </c>
-      <c r="F15" s="105">
+      <c r="F15" s="110">
         <v>45552</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="30">
-      <c r="C16" s="100"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="106"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="J16" s="51"/>
+      <c r="H16" s="97"/>
+      <c r="J16" s="52"/>
     </row>
     <row r="17" spans="3:10" ht="15">
-      <c r="C17" s="99">
+      <c r="C17" s="104">
         <v>174</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="107" t="s">
+      <c r="E17" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="F17" s="105">
+      <c r="F17" s="110">
         <v>45552</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="3:10" ht="15">
-      <c r="C18" s="100"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="106"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H18" s="63"/>
-      <c r="J18" s="51"/>
+      <c r="H18" s="97"/>
+      <c r="J18" s="52"/>
     </row>
     <row r="19" spans="3:10" ht="30">
-      <c r="C19" s="99">
+      <c r="C19" s="104">
         <v>175</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="107" t="s">
+      <c r="E19" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="F19" s="105">
+      <c r="F19" s="110">
         <v>45552</v>
       </c>
       <c r="G19" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="20" spans="3:10" ht="15">
-      <c r="C20" s="100"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="106"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="J20" s="51"/>
+      <c r="H20" s="97"/>
+      <c r="J20" s="52"/>
     </row>
     <row r="21" spans="3:10" ht="15">
-      <c r="C21" s="99">
+      <c r="C21" s="104">
         <v>178</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="107" t="s">
+      <c r="E21" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="F21" s="105">
+      <c r="F21" s="110">
         <v>45552</v>
       </c>
       <c r="G21" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="22" spans="3:10" ht="15">
-      <c r="C22" s="100"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="106"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H22" s="63"/>
-      <c r="J22" s="51"/>
+      <c r="H22" s="97"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="3:10" ht="30">
-      <c r="C23" s="99">
+      <c r="C23" s="104">
         <v>179</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="107" t="s">
+      <c r="E23" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="F23" s="105">
+      <c r="F23" s="110">
         <v>45552</v>
       </c>
       <c r="G23" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="51" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="24" spans="3:10" ht="15">
-      <c r="C24" s="100"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="106"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="111"/>
       <c r="G24" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="J24" s="51"/>
+      <c r="H24" s="97"/>
+      <c r="J24" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="H19:H20"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
@@ -5070,30 +5101,6 @@
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="H23:H24"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
